--- a/data/decc/data_release_schedule.xlsx
+++ b/data/decc/data_release_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/decc-archive/data/decc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE15CD3B-EB00-1648-8867-933ACAAED96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72384B69-EB6E-9349-B8F7-AF3AA3E0614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="500" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{D0121EA7-C121-5646-A290-A6B31742EFF2}"/>
+    <workbookView xWindow="11160" yWindow="500" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{D0121EA7-C121-5646-A290-A6B31742EFF2}"/>
   </bookViews>
   <sheets>
     <sheet name="GCMD" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>x</t>
   </si>
@@ -222,14 +222,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -267,7 +263,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -373,7 +369,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5DB9A0-5433-FF47-BABC-7C9213421903}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,6 +703,12 @@
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -774,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E362F148-5D79-214D-93BA-FD6AF7AFDC2B}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -834,10 +836,16 @@
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/decc/data_release_schedule.xlsx
+++ b/data/decc/data_release_schedule.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/decc-archive/data/decc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOEPIT~1\AppData\Local\Temp\scp13789\user\home\zh21490\decc-archive\data\decc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72384B69-EB6E-9349-B8F7-AF3AA3E0614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABF53A8-6FCE-4BEB-A843-3222E45C275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="500" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{D0121EA7-C121-5646-A290-A6B31742EFF2}"/>
+    <workbookView xWindow="31065" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D0121EA7-C121-5646-A290-A6B31742EFF2}"/>
   </bookViews>
   <sheets>
     <sheet name="GCMD" sheetId="1" r:id="rId1"/>
-    <sheet name="Picarro" sheetId="8" r:id="rId2"/>
-    <sheet name="LGR" sheetId="11" r:id="rId3"/>
+    <sheet name="Picarro-G2301" sheetId="13" r:id="rId2"/>
+    <sheet name="Picarro-G2401" sheetId="8" r:id="rId3"/>
+    <sheet name="Picarro-G5310" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="24">
   <si>
     <t>x</t>
   </si>
@@ -55,9 +56,6 @@
     <t>General release date</t>
   </si>
   <si>
-    <t>2023-01-01 00:00</t>
-  </si>
-  <si>
     <t>Species</t>
   </si>
   <si>
@@ -79,9 +77,6 @@
     <t>co</t>
   </si>
   <si>
-    <t>h2</t>
-  </si>
-  <si>
     <t>sf6</t>
   </si>
   <si>
@@ -97,13 +92,25 @@
     <t>RGL</t>
   </si>
   <si>
-    <t>TAC</t>
-  </si>
-  <si>
     <t>HFD</t>
   </si>
   <si>
     <t>TTA</t>
+  </si>
+  <si>
+    <t>2024-04-01 00:00</t>
+  </si>
+  <si>
+    <t>peak84</t>
+  </si>
+  <si>
+    <t>JBO</t>
+  </si>
+  <si>
+    <t>SIS</t>
+  </si>
+  <si>
+    <t>h2o</t>
   </si>
 </sst>
 </file>
@@ -519,100 +526,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54C872C-8629-284F-A579-6B1D027BD782}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -621,137 +606,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5DB9A0-5433-FF47-BABC-7C9213421903}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4062274-4E12-4F88-9399-98BB7249BFE9}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -760,10 +722,32 @@
       <c r="D13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -773,78 +757,274 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E362F148-5D79-214D-93BA-FD6AF7AFDC2B}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5DB9A0-5433-FF47-BABC-7C9213421903}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F656F2F-C13D-41A9-BDBF-B867FA61000F}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/data/decc/data_release_schedule.xlsx
+++ b/data/decc/data_release_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOEPIT~1\AppData\Local\Temp\scp13789\user\home\zh21490\decc-archive\data\decc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOEPIT~1\AppData\Local\Temp\scp11389\user\home\zh21490\decc-archive\data\decc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABF53A8-6FCE-4BEB-A843-3222E45C275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DFBB90-ADA2-4CD8-AFF8-8B00A5E6AF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31065" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D0121EA7-C121-5646-A290-A6B31742EFF2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0121EA7-C121-5646-A290-A6B31742EFF2}"/>
   </bookViews>
   <sheets>
     <sheet name="GCMD" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="25">
   <si>
     <t>x</t>
   </si>
@@ -98,9 +98,6 @@
     <t>TTA</t>
   </si>
   <si>
-    <t>2024-04-01 00:00</t>
-  </si>
-  <si>
     <t>peak84</t>
   </si>
   <si>
@@ -111,6 +108,12 @@
   </si>
   <si>
     <t>h2o</t>
+  </si>
+  <si>
+    <t>2024-07-01 00:00</t>
+  </si>
+  <si>
+    <t>2021-08-11 00:00</t>
   </si>
 </sst>
 </file>
@@ -528,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54C872C-8629-284F-A579-6B1D027BD782}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -573,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -594,10 +597,16 @@
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -609,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4062274-4E12-4F88-9399-98BB7249BFE9}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -654,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -662,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -725,7 +734,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -739,7 +748,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -761,7 +770,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -806,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,18 +829,24 @@
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -851,6 +866,9 @@
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -868,7 +886,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -882,7 +900,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -904,7 +922,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -949,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,11 +1007,17 @@
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1008,7 +1032,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -1019,7 +1043,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
